--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3899211.790215646</v>
+        <v>3896816.134210464</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>42.7673471940124</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>163.5240792995719</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.24425194834653</v>
       </c>
       <c r="T4" t="n">
-        <v>168.9123211396319</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>136.2597885580371</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>45.81032761095626</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>23.29204363825315</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>7.189957054421035</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>286.5101294792966</v>
+        <v>113.3500669601081</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>206.2864326596779</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>58.22220895261216</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936193</v>
+        <v>107.3178054178675</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183176</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329571</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633909</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1044.413859096888</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="C2" t="n">
-        <v>1044.413859096888</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="D2" t="n">
-        <v>879.2380214205527</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>879.2380214205527</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>468.2521166309451</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4334,19 +4334,19 @@
         <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719127</v>
+        <v>525.3175166702108</v>
       </c>
       <c r="M2" t="n">
-        <v>1569.741154691807</v>
+        <v>1166.340726290105</v>
       </c>
       <c r="N2" t="n">
-        <v>1875.216260927392</v>
+        <v>1471.81583252569</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532827</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2277.553464068626</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4358,22 +4358,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2194.618789397901</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2194.618789397901</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>2194.618789397901</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>1821.153031136821</v>
+        <v>925.303617584568</v>
       </c>
       <c r="Y2" t="n">
-        <v>1431.01369916101</v>
+        <v>925.303617584568</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>173.7995747938168</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>295.2226670640958</v>
       </c>
       <c r="L3" t="n">
-        <v>900.09141451049</v>
+        <v>871.9454821673514</v>
       </c>
       <c r="M3" t="n">
-        <v>1164.030946005978</v>
+        <v>1512.968691787245</v>
       </c>
       <c r="N3" t="n">
-        <v>1449.364816439311</v>
+        <v>1798.302562220579</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4443,7 +4443,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.7360382507266</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="C4" t="n">
-        <v>51.79985532281972</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281972</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
         <v>51.79985532281972</v>
@@ -4486,7 +4486,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1148.851085118379</v>
       </c>
       <c r="T4" t="n">
-        <v>1140.583803159474</v>
+        <v>924.4399258938173</v>
       </c>
       <c r="U4" t="n">
-        <v>1140.583803159474</v>
+        <v>924.4399258938173</v>
       </c>
       <c r="V4" t="n">
-        <v>1140.583803159474</v>
+        <v>669.7554376879305</v>
       </c>
       <c r="W4" t="n">
-        <v>851.1666331225138</v>
+        <v>380.3382676509698</v>
       </c>
       <c r="X4" t="n">
-        <v>623.1770822244964</v>
+        <v>380.3382676509698</v>
       </c>
       <c r="Y4" t="n">
-        <v>402.3845030809663</v>
+        <v>380.3382676509698</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>878.3738210286856</v>
+        <v>631.7791126460324</v>
       </c>
       <c r="C5" t="n">
-        <v>878.3738210286856</v>
+        <v>494.1429625874091</v>
       </c>
       <c r="D5" t="n">
-        <v>878.3738210286856</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="E5" t="n">
-        <v>878.3738210286856</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F5" t="n">
-        <v>467.387916239078</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719912</v>
@@ -4565,52 +4565,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599813</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.347406599813</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V5" t="n">
-        <v>2381.347406599813</v>
+        <v>2134.75269821716</v>
       </c>
       <c r="W5" t="n">
-        <v>2028.578751329699</v>
+        <v>1781.984042947046</v>
       </c>
       <c r="X5" t="n">
-        <v>1655.112993068619</v>
+        <v>1408.518284685966</v>
       </c>
       <c r="Y5" t="n">
-        <v>1264.973661092807</v>
+        <v>1018.378952710154</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682815</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845962</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802664</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1952.723412518195</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326.2821589709298</v>
+        <v>370.8526776630624</v>
       </c>
       <c r="C7" t="n">
-        <v>157.3459760430229</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1341.150059033619</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.032282044017</v>
+        <v>938.4816527122262</v>
       </c>
       <c r="V7" t="n">
-        <v>797.3477938381302</v>
+        <v>683.7971645063393</v>
       </c>
       <c r="W7" t="n">
-        <v>507.9306238011695</v>
+        <v>394.3799944693787</v>
       </c>
       <c r="X7" t="n">
-        <v>507.9306238011695</v>
+        <v>394.3799944693787</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.9306238011695</v>
+        <v>394.3799944693787</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1087.019180569858</v>
+        <v>912.4625122930331</v>
       </c>
       <c r="C8" t="n">
-        <v>718.0566636294463</v>
+        <v>912.4625122930331</v>
       </c>
       <c r="D8" t="n">
-        <v>359.7909650226958</v>
+        <v>554.1968136862827</v>
       </c>
       <c r="E8" t="n">
-        <v>70.38679383148718</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="W8" t="n">
-        <v>2237.224110870871</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="X8" t="n">
-        <v>1863.758352609791</v>
+        <v>1299.062352357155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1473.61902063398</v>
+        <v>1299.062352357155</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4884,25 +4884,25 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>563.7673318682816</v>
       </c>
       <c r="L9" t="n">
-        <v>788.8134803644011</v>
+        <v>861.0792809845964</v>
       </c>
       <c r="M9" t="n">
-        <v>1155.119369856727</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N9" t="n">
-        <v>1545.528931182469</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.457611898</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.7657712454554</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C10" t="n">
-        <v>349.8295883175485</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D10" t="n">
-        <v>199.7129489052128</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E10" t="n">
         <v>51.79985532281972</v>
@@ -4960,52 +4960,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.9810806808055</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.613536154203</v>
+        <v>581.6758022633657</v>
       </c>
       <c r="W10" t="n">
-        <v>1149.196366117243</v>
+        <v>292.258632226405</v>
       </c>
       <c r="X10" t="n">
-        <v>921.2068152192253</v>
+        <v>233.4483201530594</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.4142360756952</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="11">
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908939</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,13 +5288,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,25 +5513,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>426.0170212122717</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,19 +7254,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7982,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037393</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>348.4370131942334</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>138.4934316048493</v>
+        <v>333.6536211486845</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>97.66080065036977</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.892604166067</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.3850817401787</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>245.46701043772</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>191.4694788103613</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>10.05242792961565</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864957</v>
+        <v>58.20633287440137</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.71423459433115</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="F2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977561</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977553</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
         <v>172764.3597898923</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695055</v>
+        <v>6287.480531695079</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695075</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695044</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695075</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-388298.1239698735</v>
+        <v>-388298.1239698734</v>
       </c>
       <c r="C6" t="n">
         <v>405203.5217410264</v>
       </c>
       <c r="D6" t="n">
-        <v>577967.8815309182</v>
+        <v>577967.8815309184</v>
       </c>
       <c r="E6" t="n">
-        <v>178669.056596403</v>
+        <v>178634.3186709671</v>
       </c>
       <c r="F6" t="n">
-        <v>679557.9243421534</v>
+        <v>679523.1864167182</v>
       </c>
       <c r="G6" t="n">
-        <v>679557.9243421535</v>
+        <v>679523.1864167178</v>
       </c>
       <c r="H6" t="n">
-        <v>679557.9243421541</v>
+        <v>679523.1864167177</v>
       </c>
       <c r="I6" t="n">
-        <v>679557.9243421541</v>
+        <v>679523.1864167176</v>
       </c>
       <c r="J6" t="n">
-        <v>510143.9075161059</v>
+        <v>510109.1695906703</v>
       </c>
       <c r="K6" t="n">
-        <v>679557.9243421537</v>
+        <v>679523.1864167178</v>
       </c>
       <c r="L6" t="n">
-        <v>679557.9243421539</v>
+        <v>679523.1864167179</v>
       </c>
       <c r="M6" t="n">
-        <v>548673.4674379184</v>
+        <v>548638.7295124826</v>
       </c>
       <c r="N6" t="n">
-        <v>679557.9243421539</v>
+        <v>679523.1864167181</v>
       </c>
       <c r="O6" t="n">
-        <v>679557.9243421535</v>
+        <v>679523.1864167175</v>
       </c>
       <c r="P6" t="n">
-        <v>679557.9243421537</v>
+        <v>679523.1864167179</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,20 +26966,20 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>339.9664944694682</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>191.158962321111</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>156.2032724229549</v>
       </c>
       <c r="T4" t="n">
-        <v>53.25472649268437</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>229.0131032129705</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>365.7146957709131</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>156.5399365436841</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>213.5152716590174</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>95.42024059296523</v>
+        <v>268.5803031121537</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>45.85121066415013</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>167.487446436425</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31619,19 +31619,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31677,25 +31677,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33193,7 +33193,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33500,25 +33500,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,13 +34442,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34702,22 +34702,22 @@
         <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352464</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
         <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>416.3886026317529</v>
+        <v>611.548792175588</v>
       </c>
       <c r="P2" t="n">
         <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>123.232039869694</v>
       </c>
       <c r="K3" t="n">
         <v>122.649588151797</v>
@@ -34784,19 +34784,19 @@
         <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6022047214503</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
         <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34957,7 +34957,7 @@
         <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760962034</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35024,16 +35024,16 @@
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>568.1170166222649</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>497.4637052508702</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>491.7845789278509</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>380.0583769117625</v>
       </c>
       <c r="N9" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225504</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,10 +35337,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
